--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Prn</t>
+  </si>
+  <si>
+    <t>Rpsa</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Prn</t>
-  </si>
-  <si>
-    <t>Rpsa</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.284318</v>
+        <v>0.3750503333333333</v>
       </c>
       <c r="H2">
-        <v>0.8529540000000001</v>
+        <v>1.125151</v>
       </c>
       <c r="I2">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="J2">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N2">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O2">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P2">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q2">
-        <v>15.27856193384867</v>
+        <v>58.70731876927999</v>
       </c>
       <c r="R2">
-        <v>137.507057404638</v>
+        <v>528.36586892352</v>
       </c>
       <c r="S2">
-        <v>0.03660131847332323</v>
+        <v>0.1049566477478139</v>
       </c>
       <c r="T2">
-        <v>0.03660131847332324</v>
+        <v>0.1049566477478139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.284318</v>
+        <v>0.3750503333333333</v>
       </c>
       <c r="H3">
-        <v>0.8529540000000001</v>
+        <v>1.125151</v>
       </c>
       <c r="I3">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="J3">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O3">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P3">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q3">
-        <v>110.6568120089333</v>
+        <v>145.9699147769555</v>
       </c>
       <c r="R3">
-        <v>995.9113080804001</v>
+        <v>1313.7292329926</v>
       </c>
       <c r="S3">
-        <v>0.265089426290095</v>
+        <v>0.2609642758040614</v>
       </c>
       <c r="T3">
-        <v>0.2650894262900951</v>
+        <v>0.2609642758040614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.284318</v>
+        <v>0.3750503333333333</v>
       </c>
       <c r="H4">
-        <v>0.8529540000000001</v>
+        <v>1.125151</v>
       </c>
       <c r="I4">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="J4">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N4">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O4">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P4">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q4">
-        <v>37.74005108315934</v>
+        <v>63.55226448138711</v>
       </c>
       <c r="R4">
-        <v>339.6604597484341</v>
+        <v>571.970380332484</v>
       </c>
       <c r="S4">
-        <v>0.09041005527057769</v>
+        <v>0.1136184172021702</v>
       </c>
       <c r="T4">
-        <v>0.0904100552705777</v>
+        <v>0.1136184172021702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.284318</v>
+        <v>0.3750503333333333</v>
       </c>
       <c r="H5">
-        <v>0.8529540000000001</v>
+        <v>1.125151</v>
       </c>
       <c r="I5">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="J5">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N5">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q5">
-        <v>41.481559203234</v>
+        <v>63.38360172113478</v>
       </c>
       <c r="R5">
-        <v>373.334032829106</v>
+        <v>570.452415490213</v>
       </c>
       <c r="S5">
-        <v>0.09937321102216624</v>
+        <v>0.1133168827719308</v>
       </c>
       <c r="T5">
-        <v>0.09937321102216626</v>
+        <v>0.1133168827719308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.284318</v>
+        <v>0.3750503333333333</v>
       </c>
       <c r="H6">
-        <v>0.8529540000000001</v>
+        <v>1.125151</v>
       </c>
       <c r="I6">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="J6">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N6">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O6">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P6">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q6">
-        <v>16.685903526824</v>
+        <v>22.61923184611889</v>
       </c>
       <c r="R6">
-        <v>150.173131741416</v>
+        <v>203.57308661507</v>
       </c>
       <c r="S6">
-        <v>0.03997274557937344</v>
+        <v>0.04043854836105216</v>
       </c>
       <c r="T6">
-        <v>0.03997274557937344</v>
+        <v>0.04043854836105216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.284318</v>
+        <v>0.3750503333333333</v>
       </c>
       <c r="H7">
-        <v>0.8529540000000001</v>
+        <v>1.125151</v>
       </c>
       <c r="I7">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="J7">
-        <v>0.621545699189178</v>
+        <v>0.7477030322765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N7">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q7">
-        <v>37.610182676436</v>
+        <v>63.99406189745989</v>
       </c>
       <c r="R7">
-        <v>338.491644087924</v>
+        <v>575.946557077139</v>
       </c>
       <c r="S7">
-        <v>0.0900989425536424</v>
+        <v>0.1144082603894715</v>
       </c>
       <c r="T7">
-        <v>0.09009894255364241</v>
+        <v>0.1144082603894715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.173119</v>
+        <v>0.126553</v>
       </c>
       <c r="H8">
-        <v>0.519357</v>
+        <v>0.379659</v>
       </c>
       <c r="I8">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="J8">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N8">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O8">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P8">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q8">
-        <v>9.302996515964333</v>
+        <v>19.80957394752</v>
       </c>
       <c r="R8">
-        <v>83.72696864367899</v>
+        <v>178.28616552768</v>
       </c>
       <c r="S8">
-        <v>0.02228625571642753</v>
+        <v>0.03541545617191583</v>
       </c>
       <c r="T8">
-        <v>0.02228625571642753</v>
+        <v>0.03541545617191583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.173119</v>
+        <v>0.126553</v>
       </c>
       <c r="H9">
-        <v>0.519357</v>
+        <v>0.379659</v>
       </c>
       <c r="I9">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="J9">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O9">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P9">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q9">
-        <v>67.37806483646666</v>
+        <v>49.25453727926666</v>
       </c>
       <c r="R9">
-        <v>606.4025835281999</v>
+        <v>443.2908355134</v>
       </c>
       <c r="S9">
-        <v>0.1614108722976208</v>
+        <v>0.08805701278094599</v>
       </c>
       <c r="T9">
-        <v>0.1614108722976208</v>
+        <v>0.08805701278094599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.173119</v>
+        <v>0.126553</v>
       </c>
       <c r="H10">
-        <v>0.519357</v>
+        <v>0.379659</v>
       </c>
       <c r="I10">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="J10">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N10">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O10">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P10">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q10">
-        <v>22.97962107029967</v>
+        <v>21.44440095661733</v>
       </c>
       <c r="R10">
-        <v>206.816589632697</v>
+        <v>192.999608609556</v>
       </c>
       <c r="S10">
-        <v>0.05504997347472597</v>
+        <v>0.03833819163521939</v>
       </c>
       <c r="T10">
-        <v>0.05504997347472597</v>
+        <v>0.03833819163521939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.173119</v>
+        <v>0.126553</v>
       </c>
       <c r="H11">
-        <v>0.519357</v>
+        <v>0.379659</v>
       </c>
       <c r="I11">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="J11">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N11">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q11">
-        <v>25.257796016097</v>
+        <v>21.38748918664633</v>
       </c>
       <c r="R11">
-        <v>227.320164144873</v>
+        <v>192.487402679817</v>
       </c>
       <c r="S11">
-        <v>0.06050756870457163</v>
+        <v>0.03823644506053718</v>
       </c>
       <c r="T11">
-        <v>0.06050756870457163</v>
+        <v>0.03823644506053718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.173119</v>
+        <v>0.126553</v>
       </c>
       <c r="H12">
-        <v>0.519357</v>
+        <v>0.379659</v>
       </c>
       <c r="I12">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="J12">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N12">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O12">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P12">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q12">
-        <v>10.159915772692</v>
+        <v>7.632393290736667</v>
       </c>
       <c r="R12">
-        <v>91.43924195422798</v>
+        <v>68.69153961663001</v>
       </c>
       <c r="S12">
-        <v>0.02433909123571336</v>
+        <v>0.01364515414571795</v>
       </c>
       <c r="T12">
-        <v>0.02433909123571336</v>
+        <v>0.01364515414571795</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.173119</v>
+        <v>0.126553</v>
       </c>
       <c r="H13">
-        <v>0.519357</v>
+        <v>0.379659</v>
       </c>
       <c r="I13">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="J13">
-        <v>0.378454300810822</v>
+        <v>0.2522969677235</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N13">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q13">
-        <v>22.900545216138</v>
+        <v>21.59347638310567</v>
       </c>
       <c r="R13">
-        <v>206.104906945242</v>
+        <v>194.341287447951</v>
       </c>
       <c r="S13">
-        <v>0.05486053938176273</v>
+        <v>0.03860470792916362</v>
       </c>
       <c r="T13">
-        <v>0.05486053938176273</v>
+        <v>0.03860470792916362</v>
       </c>
     </row>
   </sheetData>
